--- a/原油粘温曲线.xlsx
+++ b/原油粘温曲线.xlsx
@@ -302,7 +302,7 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="l"/>
       <c:overlay val="false"/>
     </c:legend>
     <c:plotVisOnly val="false"/>
